--- a/04_CPlusPlus/009 链表.xlsx
+++ b/04_CPlusPlus/009 链表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\04_CPlusPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0385BA6-18DE-45DC-9253-A85D29A979E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA0DEF7-DFF6-4344-8FE2-8C82190DDC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -672,11 +672,11 @@
     <t>#endif // SIMPLELINKEDLIST_CPP</t>
   </si>
   <si>
-    <t>①数据增删改快(vector，增容时需要复制一遍)</t>
+    <t>②数据查找慢(vector，数据是连续的)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>②数据查找慢(vector，数据是连续的)</t>
+    <t>①数据增删改快(vector，增删需要移动后面数据，增容时更差)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -694,6 +694,7 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -701,6 +702,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -708,11 +710,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2384,7 +2388,7 @@
   <dimension ref="B4:P13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2405,7 +2409,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="1"/>
       <c r="L6" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -2434,7 +2438,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="L8" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
